--- a/Historic_data/Data/last_task_data.xlsx
+++ b/Historic_data/Data/last_task_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\ITAIPU\Schedule_MIL_optimization_pyomo\Historic_data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FE49B-3234-4253-B898-BA18798D2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73541DAE-E3E6-48AB-A526-5C79260448DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B775B6F0-06F9-4740-8EDC-55B64B60944D}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -130,7 +130,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2022,1,1), DATE(2023,12,31))</f>
-        <v>44978</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B16" ca="1" si="0">RANDBETWEEN(DATE(2022,1,1), DATE(2023,12,31))</f>
-        <v>45108</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +490,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44575</v>
+        <v>44947</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44799</v>
+        <v>44941</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45186</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45085</v>
+        <v>44952</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44846</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44804</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44642</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44824</v>
+        <v>45179</v>
       </c>
     </row>
   </sheetData>
